--- a/all_pixels_segments.xlsx
+++ b/all_pixels_segments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,21 +445,24 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="D1" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E1" t="n">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="F1" t="n">
+        <v>1994</v>
+      </c>
+      <c r="G1" t="n">
         <v>2001</v>
       </c>
-      <c r="G1" t="n">
-        <v>2002</v>
-      </c>
       <c r="H1" t="n">
+        <v>2005</v>
+      </c>
+      <c r="I1" t="n">
         <v>2007</v>
       </c>
     </row>
@@ -470,22 +473,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D2" t="n">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="E2" t="n">
+        <v>1994</v>
+      </c>
+      <c r="F2" t="n">
         <v>2001</v>
       </c>
-      <c r="F2" t="n">
-        <v>2002</v>
-      </c>
       <c r="G2" t="n">
+        <v>2005</v>
+      </c>
+      <c r="H2" t="n">
         <v>2007</v>
       </c>
-      <c r="H2" t="n">
-        <v>2017</v>
+      <c r="I2" t="n">
+        <v>2010</v>
       </c>
     </row>
     <row r="3">
@@ -495,22 +501,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-828.4393299999979</v>
+        <v>0.2545861234353463</v>
       </c>
       <c r="D3" t="n">
-        <v>-820.9322500000001</v>
+        <v>0.1793755354466419</v>
       </c>
       <c r="E3" t="n">
-        <v>-869.466502948717</v>
+        <v>0.35390883705444</v>
       </c>
       <c r="F3" t="n">
-        <v>-831.0809637179486</v>
+        <v>0.2190283097366651</v>
       </c>
       <c r="G3" t="n">
-        <v>-506.792052051282</v>
+        <v>0.22047371119632</v>
       </c>
       <c r="H3" t="n">
-        <v>-754.8786068589748</v>
+        <v>0.2856735340549119</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1309197912004381</v>
       </c>
     </row>
     <row r="4">
@@ -520,22 +529,25 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-820.9322500000001</v>
+        <v>0.1793755354466419</v>
       </c>
       <c r="D4" t="n">
-        <v>-869.466502948717</v>
+        <v>0.35390883705444</v>
       </c>
       <c r="E4" t="n">
-        <v>-831.0809637179486</v>
+        <v>0.2190283097366651</v>
       </c>
       <c r="F4" t="n">
-        <v>-506.792052051282</v>
+        <v>0.22047371119632</v>
       </c>
       <c r="G4" t="n">
-        <v>-754.8786068589748</v>
+        <v>0.2856735340549119</v>
       </c>
       <c r="H4" t="n">
-        <v>-789.0684113461557</v>
+        <v>0.1309197912004381</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2229997436653659</v>
       </c>
     </row>
     <row r="5">
@@ -545,22 +557,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7.507079999997814</v>
+        <v>-0.07521058798870439</v>
       </c>
       <c r="D5" t="n">
-        <v>-48.53425294871693</v>
+        <v>0.1745333016077981</v>
       </c>
       <c r="E5" t="n">
-        <v>38.38553923076836</v>
+        <v>-0.1348805273177749</v>
       </c>
       <c r="F5" t="n">
-        <v>324.2889116666666</v>
+        <v>0.001445401459654883</v>
       </c>
       <c r="G5" t="n">
-        <v>-248.0865548076928</v>
+        <v>0.06519982285859194</v>
       </c>
       <c r="H5" t="n">
-        <v>-34.18980448718094</v>
+        <v>-0.1547537428544739</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.09207995246492784</v>
       </c>
     </row>
     <row r="6">
@@ -570,22 +585,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-843.82715</v>
+        <v>0.2689121696720786</v>
       </c>
       <c r="D6" t="n">
-        <v>-819.9419</v>
+        <v>0.1276226130811554</v>
       </c>
       <c r="E6" t="n">
-        <v>-900.9146</v>
+        <v>0.3248530170562769</v>
       </c>
       <c r="F6" t="n">
-        <v>-829.2956</v>
+        <v>0.1933674675584415</v>
       </c>
       <c r="G6" t="n">
-        <v>-499.43967</v>
+        <v>0.1978133586363636</v>
       </c>
       <c r="H6" t="n">
-        <v>-757.1116</v>
+        <v>0.2752870357316016</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1394928512034632</v>
       </c>
     </row>
     <row r="7">
@@ -595,22 +613,25 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-819.9419</v>
+        <v>0.1276226130811554</v>
       </c>
       <c r="D7" t="n">
-        <v>-900.9146</v>
+        <v>0.3248530170562769</v>
       </c>
       <c r="E7" t="n">
-        <v>-829.2956</v>
+        <v>0.1933674675584415</v>
       </c>
       <c r="F7" t="n">
-        <v>-499.43967</v>
+        <v>0.1978133586363636</v>
       </c>
       <c r="G7" t="n">
-        <v>-757.1116</v>
+        <v>0.2752870357316016</v>
       </c>
       <c r="H7" t="n">
-        <v>-797.769</v>
+        <v>0.1394928512034632</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2361861228398325</v>
       </c>
     </row>
     <row r="8">
@@ -620,22 +641,25 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -645,22 +669,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.876769999999453</v>
+        <v>-0.0376052939943522</v>
       </c>
       <c r="D9" t="n">
-        <v>-48.53425294871693</v>
+        <v>0.04363332540194953</v>
       </c>
       <c r="E9" t="n">
-        <v>3.489594475524396</v>
+        <v>-0.06744026365888747</v>
       </c>
       <c r="F9" t="n">
-        <v>324.2889116666666</v>
+        <v>0.0002064859228078404</v>
       </c>
       <c r="G9" t="n">
-        <v>-49.61731096153856</v>
+        <v>0.01629995571464798</v>
       </c>
       <c r="H9" t="n">
-        <v>-3.418980448718094</v>
+        <v>-0.07737687142723693</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.03069331748830928</v>
       </c>
     </row>
     <row r="10">
@@ -670,22 +697,25 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.4179146560680352</v>
+        <v>-2.817732783017762</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.701872849175441</v>
+        <v>6.538816127092097</v>
       </c>
       <c r="E10" t="n">
-        <v>2.136900023127142</v>
+        <v>-5.053241754619665</v>
       </c>
       <c r="F10" t="n">
-        <v>18.05296986123658</v>
+        <v>0.05415135270718745</v>
       </c>
       <c r="G10" t="n">
-        <v>-13.81083020663039</v>
+        <v>2.44268371287294</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.903325978049754</v>
+        <v>-5.797783346691044</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.44973636900846</v>
       </c>
     </row>
     <row r="12">
@@ -700,22 +730,25 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="D12" t="n">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="E12" t="n">
-        <v>2001</v>
+        <v>1992</v>
       </c>
       <c r="F12" t="n">
-        <v>2002</v>
+        <v>1994</v>
       </c>
       <c r="G12" t="n">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="H12" t="n">
-        <v>2011</v>
+        <v>2005</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2007</v>
       </c>
     </row>
     <row r="13">
@@ -725,22 +758,25 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="D13" t="n">
-        <v>2001</v>
+        <v>1992</v>
       </c>
       <c r="E13" t="n">
-        <v>2002</v>
+        <v>1994</v>
       </c>
       <c r="F13" t="n">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="G13" t="n">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="H13" t="n">
-        <v>2017</v>
+        <v>2007</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2010</v>
       </c>
     </row>
     <row r="14">
@@ -750,22 +786,25 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-831.5193746104903</v>
+        <v>0.3161543452210842</v>
       </c>
       <c r="D14" t="n">
-        <v>-880.184426947535</v>
+        <v>0.1793213177560624</v>
       </c>
       <c r="E14" t="n">
-        <v>-822.1796963338631</v>
+        <v>0.3924631094110643</v>
       </c>
       <c r="F14" t="n">
-        <v>-594.126287406482</v>
+        <v>0.2010157221396014</v>
       </c>
       <c r="G14" t="n">
-        <v>-750.6907544574317</v>
+        <v>0.2216229737817068</v>
       </c>
       <c r="H14" t="n">
-        <v>-779.9278972498848</v>
+        <v>0.2006459498778557</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.09324203010531962</v>
       </c>
     </row>
     <row r="15">
@@ -775,22 +814,25 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-880.184426947535</v>
+        <v>0.1793213177560624</v>
       </c>
       <c r="D15" t="n">
-        <v>-822.1796963338631</v>
+        <v>0.3924631094110643</v>
       </c>
       <c r="E15" t="n">
-        <v>-594.126287406482</v>
+        <v>0.2010157221396014</v>
       </c>
       <c r="F15" t="n">
-        <v>-750.6907544574317</v>
+        <v>0.2216229737817068</v>
       </c>
       <c r="G15" t="n">
-        <v>-779.9278972498848</v>
+        <v>0.2006459498778557</v>
       </c>
       <c r="H15" t="n">
-        <v>-783.4685432555389</v>
+        <v>0.09324203010531962</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1623560265677781</v>
       </c>
     </row>
     <row r="16">
@@ -800,22 +842,25 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-48.6650523370447</v>
+        <v>-0.1368330274650218</v>
       </c>
       <c r="D16" t="n">
-        <v>58.00473061367188</v>
+        <v>0.2131417916550019</v>
       </c>
       <c r="E16" t="n">
-        <v>228.0534089273812</v>
+        <v>-0.1914473872714629</v>
       </c>
       <c r="F16" t="n">
-        <v>-156.5644670509497</v>
+        <v>0.02060725164210542</v>
       </c>
       <c r="G16" t="n">
-        <v>-29.23714279245314</v>
+        <v>-0.02097702390385114</v>
       </c>
       <c r="H16" t="n">
-        <v>-3.540646005654025</v>
+        <v>-0.107403919772536</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.06911399646245853</v>
       </c>
     </row>
     <row r="17">
@@ -825,22 +870,25 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-840.4792</v>
+        <v>0.3248478755173187</v>
       </c>
       <c r="D17" t="n">
-        <v>-907.56616</v>
+        <v>0.1249693027597287</v>
       </c>
       <c r="E17" t="n">
-        <v>-838.3339</v>
+        <v>0.3537111567099565</v>
       </c>
       <c r="F17" t="n">
-        <v>-598.0975</v>
+        <v>0.1976827048441559</v>
       </c>
       <c r="G17" t="n">
-        <v>-783.25806</v>
+        <v>0.2494145537056276</v>
       </c>
       <c r="H17" t="n">
-        <v>-782.9912</v>
+        <v>0.2167142655974025</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.09847522392207791</v>
       </c>
     </row>
     <row r="18">
@@ -850,22 +898,25 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-907.56616</v>
+        <v>0.1249693027597287</v>
       </c>
       <c r="D18" t="n">
-        <v>-838.3339</v>
+        <v>0.3537111567099565</v>
       </c>
       <c r="E18" t="n">
-        <v>-598.0975</v>
+        <v>0.1976827048441559</v>
       </c>
       <c r="F18" t="n">
-        <v>-783.25806</v>
+        <v>0.2494145537056276</v>
       </c>
       <c r="G18" t="n">
-        <v>-782.9912</v>
+        <v>0.2167142655974025</v>
       </c>
       <c r="H18" t="n">
-        <v>-788.56525</v>
+        <v>0.09847522392207791</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1673230163539062</v>
       </c>
     </row>
     <row r="19">
@@ -878,19 +929,22 @@
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
+        <v>7</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
         <v>3</v>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -900,22 +954,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-24.33252616852235</v>
+        <v>-0.0684165137325109</v>
       </c>
       <c r="D20" t="n">
-        <v>4.143195043833706</v>
+        <v>0.05328544791375048</v>
       </c>
       <c r="E20" t="n">
-        <v>228.0534089273812</v>
+        <v>-0.09572369363573147</v>
       </c>
       <c r="F20" t="n">
-        <v>-26.09407784182495</v>
+        <v>0.005151812910526354</v>
       </c>
       <c r="G20" t="n">
-        <v>-9.745714264151047</v>
+        <v>-0.002996717700550163</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.5901076676090042</v>
+        <v>-0.05370195988626802</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.02303799882081951</v>
       </c>
     </row>
     <row r="21">
@@ -925,22 +982,25 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-2.897365777473774</v>
+        <v>-5.698703025566647</v>
       </c>
       <c r="D21" t="n">
-        <v>3.453421158322835</v>
+        <v>8.876744127360244</v>
       </c>
       <c r="E21" t="n">
-        <v>13.57759029798574</v>
+        <v>-7.973234425143482</v>
       </c>
       <c r="F21" t="n">
-        <v>-9.321361162012662</v>
+        <v>0.858232909532743</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.740688500061151</v>
+        <v>-0.8736328633729784</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.210799045193304</v>
+        <v>-4.473065121079253</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.878399667436257</v>
       </c>
     </row>
     <row r="23">
@@ -955,22 +1015,25 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="D23" t="n">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="E23" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="F23" t="n">
-        <v>2001</v>
+        <v>1992</v>
       </c>
       <c r="G23" t="n">
-        <v>2002</v>
+        <v>1994</v>
       </c>
       <c r="H23" t="n">
-        <v>2011</v>
+        <v>2004</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2007</v>
       </c>
     </row>
     <row r="24">
@@ -980,22 +1043,25 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="D24" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="E24" t="n">
-        <v>2001</v>
+        <v>1992</v>
       </c>
       <c r="F24" t="n">
-        <v>2002</v>
+        <v>1994</v>
       </c>
       <c r="G24" t="n">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="H24" t="n">
-        <v>2017</v>
+        <v>2007</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2010</v>
       </c>
     </row>
     <row r="25">
@@ -1005,22 +1071,25 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-828.0816636179753</v>
+        <v>0.3596192853172981</v>
       </c>
       <c r="D25" t="n">
-        <v>-897.3729819101118</v>
+        <v>0.1386016327035625</v>
       </c>
       <c r="E25" t="n">
-        <v>-850.2536840584271</v>
+        <v>0.3773270651712163</v>
       </c>
       <c r="F25" t="n">
-        <v>-830.7427218970374</v>
+        <v>0.4002667629531184</v>
       </c>
       <c r="G25" t="n">
-        <v>-607.0741913599996</v>
+        <v>0.1847057769888567</v>
       </c>
       <c r="H25" t="n">
-        <v>-793.3172070200012</v>
+        <v>0.1977289862592393</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0937041318850933</v>
       </c>
     </row>
     <row r="26">
@@ -1030,22 +1099,25 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-897.3729819101118</v>
+        <v>0.1386016327035625</v>
       </c>
       <c r="D26" t="n">
-        <v>-850.2536840584271</v>
+        <v>0.3773270651712163</v>
       </c>
       <c r="E26" t="n">
-        <v>-830.7427218970374</v>
+        <v>0.4002667629531184</v>
       </c>
       <c r="F26" t="n">
-        <v>-607.0741913599996</v>
+        <v>0.1847057769888567</v>
       </c>
       <c r="G26" t="n">
-        <v>-793.3172070200012</v>
+        <v>0.1977289862592393</v>
       </c>
       <c r="H26" t="n">
-        <v>-778.3188087285707</v>
+        <v>0.0937041318850933</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.1311761176599133</v>
       </c>
     </row>
     <row r="27">
@@ -1055,22 +1127,25 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-69.29131829213645</v>
+        <v>-0.2210176526137355</v>
       </c>
       <c r="D27" t="n">
-        <v>47.11929785168468</v>
+        <v>0.2387254324676538</v>
       </c>
       <c r="E27" t="n">
-        <v>19.51096216138967</v>
+        <v>0.02293969778190202</v>
       </c>
       <c r="F27" t="n">
-        <v>223.6685305370378</v>
+        <v>-0.2155609859642617</v>
       </c>
       <c r="G27" t="n">
-        <v>-186.2430156600016</v>
+        <v>0.01302320927038259</v>
       </c>
       <c r="H27" t="n">
-        <v>14.99839829143048</v>
+        <v>-0.104024854374146</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.03747198577482003</v>
       </c>
     </row>
     <row r="28">
@@ -1080,22 +1155,25 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-840.4792</v>
+        <v>0.3676587255887475</v>
       </c>
       <c r="D28" t="n">
-        <v>-907.56616</v>
+        <v>0.1330095528311536</v>
       </c>
       <c r="E28" t="n">
-        <v>-845.09937</v>
+        <v>0.3742303487186145</v>
       </c>
       <c r="F28" t="n">
-        <v>-838.3339</v>
+        <v>0.3940918300389609</v>
       </c>
       <c r="G28" t="n">
-        <v>-598.0975</v>
+        <v>0.2005218945064935</v>
       </c>
       <c r="H28" t="n">
-        <v>-782.9912</v>
+        <v>0.2114904187619047</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.08894266746753247</v>
       </c>
     </row>
     <row r="29">
@@ -1105,22 +1183,25 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-907.56616</v>
+        <v>0.1330095528311536</v>
       </c>
       <c r="D29" t="n">
-        <v>-845.09937</v>
+        <v>0.3742303487186145</v>
       </c>
       <c r="E29" t="n">
-        <v>-838.3339</v>
+        <v>0.3940918300389609</v>
       </c>
       <c r="F29" t="n">
-        <v>-598.0975</v>
+        <v>0.2005218945064935</v>
       </c>
       <c r="G29" t="n">
-        <v>-782.9912</v>
+        <v>0.2114904187619047</v>
       </c>
       <c r="H29" t="n">
-        <v>-788.56525</v>
+        <v>0.08894266746753247</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.1404499903766266</v>
       </c>
     </row>
     <row r="30">
@@ -1133,19 +1214,22 @@
         <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
         <v>10</v>
       </c>
-      <c r="F30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" t="n">
-        <v>9</v>
-      </c>
       <c r="H30" t="n">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1155,22 +1239,25 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-34.64565914606823</v>
+        <v>-0.1105088263068678</v>
       </c>
       <c r="D31" t="n">
-        <v>11.77982446292117</v>
+        <v>0.1193627162338269</v>
       </c>
       <c r="E31" t="n">
-        <v>1.951096216138967</v>
+        <v>0.01146984889095101</v>
       </c>
       <c r="F31" t="n">
-        <v>223.6685305370378</v>
+        <v>-0.1077804929821308</v>
       </c>
       <c r="G31" t="n">
-        <v>-20.69366840666684</v>
+        <v>0.001302320927038258</v>
       </c>
       <c r="H31" t="n">
-        <v>2.499733048571746</v>
+        <v>-0.03467495145804866</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.01249066192494001</v>
       </c>
     </row>
     <row r="32">
@@ -1180,22 +1267,25 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-4.064472446654397</v>
+        <v>-12.28670789941696</v>
       </c>
       <c r="D32" t="n">
-        <v>2.763911735903692</v>
+        <v>13.27111034890146</v>
       </c>
       <c r="E32" t="n">
-        <v>1.144469034033149</v>
+        <v>1.275252734856062</v>
       </c>
       <c r="F32" t="n">
-        <v>13.11989152405312</v>
+        <v>-11.98336349034505</v>
       </c>
       <c r="G32" t="n">
-        <v>-10.92459523342343</v>
+        <v>0.7239800365530878</v>
       </c>
       <c r="H32" t="n">
-        <v>0.879772215365481</v>
+        <v>-5.782900075444415</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.083124755790246</v>
       </c>
     </row>
     <row r="34">
@@ -1210,22 +1300,25 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="D34" t="n">
-        <v>2001</v>
+        <v>1988</v>
       </c>
       <c r="E34" t="n">
-        <v>2002</v>
+        <v>1990</v>
       </c>
       <c r="F34" t="n">
-        <v>2006</v>
+        <v>1992</v>
       </c>
       <c r="G34" t="n">
-        <v>2011</v>
+        <v>1994</v>
       </c>
       <c r="H34" t="n">
-        <v>2012</v>
+        <v>2004</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2007</v>
       </c>
     </row>
     <row r="35">
@@ -1235,22 +1328,25 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2001</v>
+        <v>1988</v>
       </c>
       <c r="D35" t="n">
-        <v>2002</v>
+        <v>1990</v>
       </c>
       <c r="E35" t="n">
-        <v>2006</v>
+        <v>1992</v>
       </c>
       <c r="F35" t="n">
-        <v>2011</v>
+        <v>1994</v>
       </c>
       <c r="G35" t="n">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="H35" t="n">
-        <v>2017</v>
+        <v>2007</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2010</v>
       </c>
     </row>
     <row r="36">
@@ -1260,22 +1356,25 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-847.1053068627451</v>
+        <v>0.3352058704459567</v>
       </c>
       <c r="D36" t="n">
-        <v>-830.8815484313724</v>
+        <v>0.1503285830169666</v>
       </c>
       <c r="E36" t="n">
-        <v>-551.7049487058821</v>
+        <v>0.3657332682054278</v>
       </c>
       <c r="F36" t="n">
-        <v>-710.5358858823532</v>
+        <v>0.416110041663884</v>
       </c>
       <c r="G36" t="n">
-        <v>-749.9125305882353</v>
+        <v>0.166456567854554</v>
       </c>
       <c r="H36" t="n">
-        <v>-799.0485761904765</v>
+        <v>0.176126012732418</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.08551284446003793</v>
       </c>
     </row>
     <row r="37">
@@ -1285,22 +1384,25 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-830.8815484313724</v>
+        <v>0.1503285830169666</v>
       </c>
       <c r="D37" t="n">
-        <v>-551.7049487058821</v>
+        <v>0.3657332682054278</v>
       </c>
       <c r="E37" t="n">
-        <v>-710.5358858823532</v>
+        <v>0.416110041663884</v>
       </c>
       <c r="F37" t="n">
-        <v>-749.9125305882353</v>
+        <v>0.166456567854554</v>
       </c>
       <c r="G37" t="n">
-        <v>-799.0485761904765</v>
+        <v>0.176126012732418</v>
       </c>
       <c r="H37" t="n">
-        <v>-781.3949404761906</v>
+        <v>0.08551284446003793</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.1246903380434126</v>
       </c>
     </row>
     <row r="38">
@@ -1310,22 +1412,25 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>16.22375843137274</v>
+        <v>-0.1848772874289901</v>
       </c>
       <c r="D38" t="n">
-        <v>279.1765997254903</v>
+        <v>0.2154046851884612</v>
       </c>
       <c r="E38" t="n">
-        <v>-158.8309371764711</v>
+        <v>0.0503767734584562</v>
       </c>
       <c r="F38" t="n">
-        <v>-39.37664470588209</v>
+        <v>-0.24965347380933</v>
       </c>
       <c r="G38" t="n">
-        <v>-49.13604560224121</v>
+        <v>0.009669444877864031</v>
       </c>
       <c r="H38" t="n">
-        <v>17.65363571428588</v>
+        <v>-0.09061316827238008</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.03917749358337463</v>
       </c>
     </row>
     <row r="39">
@@ -1335,22 +1440,25 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-863.33856</v>
+        <v>0.3464384925941559</v>
       </c>
       <c r="D39" t="n">
-        <v>-814.20764</v>
+        <v>0.1469805409123236</v>
       </c>
       <c r="E39" t="n">
-        <v>-571.6932399999999</v>
+        <v>0.3643126622467531</v>
       </c>
       <c r="F39" t="n">
-        <v>-719.5786000000001</v>
+        <v>0.4081028016450214</v>
       </c>
       <c r="G39" t="n">
-        <v>-739.1006</v>
+        <v>0.1972328888917749</v>
       </c>
       <c r="H39" t="n">
-        <v>-829.0749</v>
+        <v>0.1948799582987013</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.08331030883549784</v>
       </c>
     </row>
     <row r="40">
@@ -1360,22 +1468,25 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-814.20764</v>
+        <v>0.1469805409123236</v>
       </c>
       <c r="D40" t="n">
-        <v>-571.6932399999999</v>
+        <v>0.3643126622467531</v>
       </c>
       <c r="E40" t="n">
-        <v>-719.5786000000001</v>
+        <v>0.4081028016450214</v>
       </c>
       <c r="F40" t="n">
-        <v>-739.1006</v>
+        <v>0.1972328888917749</v>
       </c>
       <c r="G40" t="n">
-        <v>-829.0749</v>
+        <v>0.1948799582987013</v>
       </c>
       <c r="H40" t="n">
-        <v>-820.6002999999999</v>
+        <v>0.08331030883549784</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.132867786858221</v>
       </c>
     </row>
     <row r="41">
@@ -1385,22 +1496,25 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H41" t="n">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -1410,22 +1524,25 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1.013984901960796</v>
+        <v>-0.09243864371449505</v>
       </c>
       <c r="D42" t="n">
-        <v>279.1765997254903</v>
+        <v>0.1077023425942306</v>
       </c>
       <c r="E42" t="n">
-        <v>-39.70773429411778</v>
+        <v>0.0251883867292281</v>
       </c>
       <c r="F42" t="n">
-        <v>-7.875328941176417</v>
+        <v>-0.124826736904665</v>
       </c>
       <c r="G42" t="n">
-        <v>-49.13604560224121</v>
+        <v>0.000966944487786403</v>
       </c>
       <c r="H42" t="n">
-        <v>3.530727142857176</v>
+        <v>-0.03020438942412669</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.01305916452779154</v>
       </c>
     </row>
     <row r="43">
@@ -1435,22 +1552,25 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.8616427283223257</v>
+        <v>-9.456129570896012</v>
       </c>
       <c r="D43" t="n">
-        <v>14.8270505930399</v>
+        <v>11.01754921681501</v>
       </c>
       <c r="E43" t="n">
-        <v>-8.435500480954012</v>
+        <v>2.57667831355329</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.091290974287781</v>
+        <v>-12.76931108734525</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.609612105035701</v>
+        <v>0.4945741303070487</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9375834154588478</v>
+        <v>-4.634695110085596</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.003855967053991</v>
       </c>
     </row>
     <row r="45">
@@ -1465,22 +1585,25 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="D45" t="n">
-        <v>2001</v>
+        <v>1988</v>
       </c>
       <c r="E45" t="n">
-        <v>2002</v>
+        <v>1992</v>
       </c>
       <c r="F45" t="n">
+        <v>1994</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1997</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2004</v>
+      </c>
+      <c r="I45" t="n">
         <v>2007</v>
-      </c>
-      <c r="G45" t="n">
-        <v>2009</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2012</v>
       </c>
     </row>
     <row r="46">
@@ -1490,22 +1613,25 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2001</v>
+        <v>1988</v>
       </c>
       <c r="D46" t="n">
-        <v>2002</v>
+        <v>1992</v>
       </c>
       <c r="E46" t="n">
+        <v>1994</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1997</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2004</v>
+      </c>
+      <c r="H46" t="n">
         <v>2007</v>
       </c>
-      <c r="F46" t="n">
-        <v>2009</v>
-      </c>
-      <c r="G46" t="n">
-        <v>2012</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2017</v>
+      <c r="I46" t="n">
+        <v>2010</v>
       </c>
     </row>
     <row r="47">
@@ -1515,22 +1641,25 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-846.7859178431371</v>
+        <v>0.2954771533748813</v>
       </c>
       <c r="D47" t="n">
-        <v>-820.5642433333325</v>
+        <v>0.1967935579827628</v>
       </c>
       <c r="E47" t="n">
-        <v>-474.0391058691878</v>
+        <v>0.4192756126636172</v>
       </c>
       <c r="F47" t="n">
-        <v>-757.056078859729</v>
+        <v>0.156248569514893</v>
       </c>
       <c r="G47" t="n">
-        <v>-691.6851043932461</v>
+        <v>0.1379314976607706</v>
       </c>
       <c r="H47" t="n">
-        <v>-790.2184515438412</v>
+        <v>0.1576341051671735</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.07330863021294043</v>
       </c>
     </row>
     <row r="48">
@@ -1540,22 +1669,25 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-820.5642433333325</v>
+        <v>0.1967935579827628</v>
       </c>
       <c r="D48" t="n">
-        <v>-474.0391058691878</v>
+        <v>0.4192756126636172</v>
       </c>
       <c r="E48" t="n">
-        <v>-757.056078859729</v>
+        <v>0.156248569514893</v>
       </c>
       <c r="F48" t="n">
-        <v>-691.6851043932461</v>
+        <v>0.1379314976607706</v>
       </c>
       <c r="G48" t="n">
-        <v>-790.2184515438412</v>
+        <v>0.1576341051671735</v>
       </c>
       <c r="H48" t="n">
-        <v>-742.2656230749672</v>
+        <v>0.07330863021294043</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.1293006710096556</v>
       </c>
     </row>
     <row r="49">
@@ -1565,22 +1697,25 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>26.22167450980464</v>
+        <v>-0.09868359539211852</v>
       </c>
       <c r="D49" t="n">
-        <v>346.5251374641447</v>
+        <v>0.2224820546808544</v>
       </c>
       <c r="E49" t="n">
-        <v>-283.0169729905413</v>
+        <v>-0.2630270431487242</v>
       </c>
       <c r="F49" t="n">
-        <v>65.37097446648295</v>
+        <v>-0.01831707185412235</v>
       </c>
       <c r="G49" t="n">
-        <v>-98.53334715059509</v>
+        <v>0.01970260750640285</v>
       </c>
       <c r="H49" t="n">
-        <v>47.95282846887403</v>
+        <v>-0.08432547495423304</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.05599204079671516</v>
       </c>
     </row>
     <row r="50">
@@ -1590,22 +1725,25 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-859.28705</v>
+        <v>0.3058270133928623</v>
       </c>
       <c r="D50" t="n">
-        <v>-813.32434</v>
+        <v>0.1498025468928477</v>
       </c>
       <c r="E50" t="n">
-        <v>-462.19687</v>
+        <v>0.3817888149523808</v>
       </c>
       <c r="F50" t="n">
-        <v>-742.9027</v>
+        <v>0.1575248086623377</v>
       </c>
       <c r="G50" t="n">
-        <v>-689.6774</v>
+        <v>0.1329162567619047</v>
       </c>
       <c r="H50" t="n">
-        <v>-806.4171</v>
+        <v>0.1638551019480519</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.07836166612554112</v>
       </c>
     </row>
     <row r="51">
@@ -1615,22 +1753,25 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-813.32434</v>
+        <v>0.1498025468928477</v>
       </c>
       <c r="D51" t="n">
-        <v>-462.19687</v>
+        <v>0.3817888149523808</v>
       </c>
       <c r="E51" t="n">
-        <v>-742.9027</v>
+        <v>0.1575248086623377</v>
       </c>
       <c r="F51" t="n">
-        <v>-689.6774</v>
+        <v>0.1329162567619047</v>
       </c>
       <c r="G51" t="n">
-        <v>-806.4171</v>
+        <v>0.1638551019480519</v>
       </c>
       <c r="H51" t="n">
-        <v>-765.22504</v>
+        <v>0.07836166612554112</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.1332698164437203</v>
       </c>
     </row>
     <row r="52">
@@ -1640,22 +1781,25 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G52" t="n">
+        <v>7</v>
+      </c>
+      <c r="H52" t="n">
         <v>3</v>
       </c>
-      <c r="H52" t="n">
-        <v>5</v>
+      <c r="I52" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -1665,22 +1809,25 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1.63885465686279</v>
+        <v>-0.04934179769605926</v>
       </c>
       <c r="D53" t="n">
-        <v>346.5251374641447</v>
+        <v>0.05562051367021359</v>
       </c>
       <c r="E53" t="n">
-        <v>-56.60339459810825</v>
+        <v>-0.1315135215743621</v>
       </c>
       <c r="F53" t="n">
-        <v>32.68548723324147</v>
+        <v>-0.006105690618040782</v>
       </c>
       <c r="G53" t="n">
-        <v>-32.84444905019836</v>
+        <v>0.002814658215200407</v>
       </c>
       <c r="H53" t="n">
-        <v>9.590565693774806</v>
+        <v>-0.02810849165141101</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.01866401359890505</v>
       </c>
     </row>
     <row r="54">
@@ -1690,22 +1837,25 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1.228319964235699</v>
+        <v>-4.800543431696996</v>
       </c>
       <c r="D54" t="n">
-        <v>16.2325157494261</v>
+        <v>10.82281976071909</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.25755904764403</v>
+        <v>-12.79516356623479</v>
       </c>
       <c r="F54" t="n">
-        <v>3.062217593643731</v>
+        <v>-0.891048797197064</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.615665464186421</v>
+        <v>0.9584493012880245</v>
       </c>
       <c r="H54" t="n">
-        <v>2.24628738061194</v>
+        <v>-4.102081032898842</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2.723778178185921</v>
       </c>
     </row>
     <row r="56">
@@ -1720,22 +1870,25 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="D56" t="n">
-        <v>2001</v>
+        <v>1988</v>
       </c>
       <c r="E56" t="n">
-        <v>2002</v>
+        <v>1992</v>
       </c>
       <c r="F56" t="n">
+        <v>1994</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2004</v>
+      </c>
+      <c r="I56" t="n">
         <v>2007</v>
-      </c>
-      <c r="G56" t="n">
-        <v>2009</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2012</v>
       </c>
     </row>
     <row r="57">
@@ -1745,22 +1898,25 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2001</v>
+        <v>1988</v>
       </c>
       <c r="D57" t="n">
-        <v>2002</v>
+        <v>1992</v>
       </c>
       <c r="E57" t="n">
+        <v>1994</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2004</v>
+      </c>
+      <c r="H57" t="n">
         <v>2007</v>
       </c>
-      <c r="F57" t="n">
-        <v>2009</v>
-      </c>
-      <c r="G57" t="n">
-        <v>2012</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2017</v>
+      <c r="I57" t="n">
+        <v>2010</v>
       </c>
     </row>
     <row r="58">
@@ -1770,22 +1926,25 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>-846.7859178431371</v>
+        <v>0.2639997589251756</v>
       </c>
       <c r="D58" t="n">
-        <v>-820.5642433333325</v>
+        <v>0.1217826853568081</v>
       </c>
       <c r="E58" t="n">
-        <v>-474.0391058691878</v>
+        <v>0.323165099628005</v>
       </c>
       <c r="F58" t="n">
-        <v>-757.056078859729</v>
+        <v>0.1147165749863777</v>
       </c>
       <c r="G58" t="n">
-        <v>-691.6851043932461</v>
+        <v>0.1735204695638868</v>
       </c>
       <c r="H58" t="n">
-        <v>-790.2184515438412</v>
+        <v>0.1292951561975944</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.06432658917797118</v>
       </c>
     </row>
     <row r="59">
@@ -1795,22 +1954,25 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>-820.5642433333325</v>
+        <v>0.1217826853568081</v>
       </c>
       <c r="D59" t="n">
-        <v>-474.0391058691878</v>
+        <v>0.323165099628005</v>
       </c>
       <c r="E59" t="n">
-        <v>-757.056078859729</v>
+        <v>0.1147165749863777</v>
       </c>
       <c r="F59" t="n">
-        <v>-691.6851043932461</v>
+        <v>0.1735204695638868</v>
       </c>
       <c r="G59" t="n">
-        <v>-790.2184515438412</v>
+        <v>0.1292951561975944</v>
       </c>
       <c r="H59" t="n">
-        <v>-742.2656230749672</v>
+        <v>0.06432658917797118</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.1284503639375494</v>
       </c>
     </row>
     <row r="60">
@@ -1820,22 +1982,25 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>26.22167450980464</v>
+        <v>-0.1422170735683675</v>
       </c>
       <c r="D60" t="n">
-        <v>346.5251374641447</v>
+        <v>0.2013824142711969</v>
       </c>
       <c r="E60" t="n">
-        <v>-283.0169729905413</v>
+        <v>-0.2084485246416273</v>
       </c>
       <c r="F60" t="n">
-        <v>65.37097446648295</v>
+        <v>0.05880389457750912</v>
       </c>
       <c r="G60" t="n">
-        <v>-98.53334715059509</v>
+        <v>-0.04422531336629243</v>
       </c>
       <c r="H60" t="n">
-        <v>47.95282846887403</v>
+        <v>-0.06496856701962317</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.0641237747595782</v>
       </c>
     </row>
     <row r="61">
@@ -1845,22 +2010,25 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-859.28705</v>
+        <v>0.2659655832521665</v>
       </c>
       <c r="D61" t="n">
-        <v>-813.32434</v>
+        <v>0.06007016478245003</v>
       </c>
       <c r="E61" t="n">
-        <v>-462.19687</v>
+        <v>0.27991263104329</v>
       </c>
       <c r="F61" t="n">
-        <v>-742.9027</v>
+        <v>0.117449060034632</v>
       </c>
       <c r="G61" t="n">
-        <v>-689.6774</v>
+        <v>0.2011512652597401</v>
       </c>
       <c r="H61" t="n">
-        <v>-806.4171</v>
+        <v>0.1371277878268398</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.06760655040259742</v>
       </c>
     </row>
     <row r="62">
@@ -1870,22 +2038,25 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>-813.32434</v>
+        <v>0.06007016478245003</v>
       </c>
       <c r="D62" t="n">
-        <v>-462.19687</v>
+        <v>0.27991263104329</v>
       </c>
       <c r="E62" t="n">
-        <v>-742.9027</v>
+        <v>0.117449060034632</v>
       </c>
       <c r="F62" t="n">
-        <v>-689.6774</v>
+        <v>0.2011512652597401</v>
       </c>
       <c r="G62" t="n">
-        <v>-806.4171</v>
+        <v>0.1371277878268398</v>
       </c>
       <c r="H62" t="n">
-        <v>-765.22504</v>
+        <v>0.06760655040259742</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.1294616508798655</v>
       </c>
     </row>
     <row r="63">
@@ -1895,22 +2066,25 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G63" t="n">
+        <v>4</v>
+      </c>
+      <c r="H63" t="n">
         <v>3</v>
       </c>
-      <c r="H63" t="n">
-        <v>5</v>
+      <c r="I63" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -1920,22 +2094,25 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.63885465686279</v>
+        <v>-0.07110853678418376</v>
       </c>
       <c r="D64" t="n">
-        <v>346.5251374641447</v>
+        <v>0.05034560356779922</v>
       </c>
       <c r="E64" t="n">
-        <v>-56.60339459810825</v>
+        <v>-0.1042242623208137</v>
       </c>
       <c r="F64" t="n">
-        <v>32.68548723324147</v>
+        <v>0.00980064909625152</v>
       </c>
       <c r="G64" t="n">
-        <v>-32.84444905019836</v>
+        <v>-0.01105632834157311</v>
       </c>
       <c r="H64" t="n">
-        <v>9.590565693774806</v>
+        <v>-0.02165618900654106</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.02137459158652607</v>
       </c>
     </row>
     <row r="65">
@@ -1945,22 +2122,25 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.228319964235699</v>
+        <v>-5.817748618745824</v>
       </c>
       <c r="D65" t="n">
-        <v>16.2325157494261</v>
+        <v>8.238056325232565</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.25755904764403</v>
+        <v>-8.527113418140015</v>
       </c>
       <c r="F65" t="n">
-        <v>3.062217593643731</v>
+        <v>2.405521839758003</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.615665464186421</v>
+        <v>-1.809148151446542</v>
       </c>
       <c r="H65" t="n">
-        <v>2.24628738061194</v>
+        <v>-2.657703337276221</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2.623144976028258</v>
       </c>
     </row>
     <row r="67">
@@ -1975,16 +2155,25 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="D67" t="n">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="E67" t="n">
-        <v>2002</v>
+        <v>1989</v>
       </c>
       <c r="F67" t="n">
-        <v>2009</v>
+        <v>1992</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1994</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2006</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2007</v>
       </c>
     </row>
     <row r="68">
@@ -1994,16 +2183,25 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="D68" t="n">
-        <v>2002</v>
+        <v>1989</v>
       </c>
       <c r="E68" t="n">
-        <v>2009</v>
+        <v>1992</v>
       </c>
       <c r="F68" t="n">
-        <v>2017</v>
+        <v>1994</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2006</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2007</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2010</v>
       </c>
     </row>
     <row r="69">
@@ -2013,16 +2211,25 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>-827.3318980460419</v>
+        <v>0.2813717046904864</v>
       </c>
       <c r="D69" t="n">
-        <v>-811.8900279373165</v>
+        <v>0.1345186398722873</v>
       </c>
       <c r="E69" t="n">
-        <v>-750.0190194792383</v>
+        <v>0.3373088367049227</v>
       </c>
       <c r="F69" t="n">
-        <v>-548.9315055425807</v>
+        <v>0.3443054567632882</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.243033213897951</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.2900888422827421</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.154338839442854</v>
       </c>
     </row>
     <row r="70">
@@ -2032,16 +2239,25 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>-811.8900279373165</v>
+        <v>0.1345186398722873</v>
       </c>
       <c r="D70" t="n">
-        <v>-750.0190194792383</v>
+        <v>0.3373088367049227</v>
       </c>
       <c r="E70" t="n">
-        <v>-548.9315055425807</v>
+        <v>0.3443054567632882</v>
       </c>
       <c r="F70" t="n">
-        <v>-732.5339659530548</v>
+        <v>0.243033213897951</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.2900888422827421</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.154338839442854</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.2049146524792285</v>
       </c>
     </row>
     <row r="71">
@@ -2051,16 +2267,25 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>15.44187010872542</v>
+        <v>-0.1468530648181991</v>
       </c>
       <c r="D71" t="n">
-        <v>61.87100845807822</v>
+        <v>0.2027901968326354</v>
       </c>
       <c r="E71" t="n">
-        <v>201.0875139366576</v>
+        <v>0.006996620058365433</v>
       </c>
       <c r="F71" t="n">
-        <v>-183.6024604104741</v>
+        <v>-0.1012722428653372</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.04705562838479116</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-0.1357500028398881</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.05057581303637448</v>
       </c>
     </row>
     <row r="72">
@@ -2070,16 +2295,25 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>-821.98004</v>
+        <v>0.2819242240844224</v>
       </c>
       <c r="D72" t="n">
-        <v>-752.0543</v>
+        <v>0.1350711592662254</v>
       </c>
       <c r="E72" t="n">
-        <v>-615.2336</v>
+        <v>0.3049658323116881</v>
       </c>
       <c r="F72" t="n">
-        <v>-434.17685</v>
+        <v>0.3420003526536795</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.2105686740995671</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.2490154818441558</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.1656623216883117</v>
       </c>
     </row>
     <row r="73">
@@ -2089,16 +2323,25 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>-752.0543</v>
+        <v>0.1350711592662254</v>
       </c>
       <c r="D73" t="n">
-        <v>-615.2336</v>
+        <v>0.3049658323116881</v>
       </c>
       <c r="E73" t="n">
-        <v>-434.17685</v>
+        <v>0.3420003526536795</v>
       </c>
       <c r="F73" t="n">
-        <v>-758.58435</v>
+        <v>0.2105686740995671</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.2490154818441558</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.1656623216883117</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.2110189424155954</v>
       </c>
     </row>
     <row r="74">
@@ -2108,16 +2351,25 @@
         </is>
       </c>
       <c r="C74" t="n">
+        <v>2</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2</v>
+      </c>
+      <c r="G74" t="n">
         <v>12</v>
       </c>
-      <c r="D74" t="n">
-        <v>5</v>
-      </c>
-      <c r="E74" t="n">
-        <v>7</v>
-      </c>
-      <c r="F74" t="n">
-        <v>8</v>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -2127,16 +2379,25 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1.286822509060452</v>
+        <v>-0.07342653240909955</v>
       </c>
       <c r="D75" t="n">
-        <v>12.37420169161564</v>
+        <v>0.2027901968326354</v>
       </c>
       <c r="E75" t="n">
-        <v>28.7267877052368</v>
+        <v>0.002332206686121811</v>
       </c>
       <c r="F75" t="n">
-        <v>-22.95030755130927</v>
+        <v>-0.0506361214326686</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.003921302365399264</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-0.1357500028398881</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.01685860434545816</v>
       </c>
     </row>
     <row r="76">
@@ -2146,16 +2407,25 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.2718548273497723</v>
+        <v>-6.565842897200611</v>
       </c>
       <c r="D76" t="n">
-        <v>1.089241924967563</v>
+        <v>9.066808208217017</v>
       </c>
       <c r="E76" t="n">
-        <v>3.540154851617074</v>
+        <v>0.3128209014330148</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.232329687042206</v>
+        <v>-4.527911196978612</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2.103870721295998</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-6.069421792760462</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2.261259192691174</v>
       </c>
     </row>
     <row r="78">
@@ -2170,22 +2440,25 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="D78" t="n">
-        <v>1996</v>
+        <v>1988</v>
       </c>
       <c r="E78" t="n">
-        <v>1997</v>
+        <v>1989</v>
       </c>
       <c r="F78" t="n">
+        <v>1992</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1994</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2005</v>
+      </c>
+      <c r="I78" t="n">
         <v>2007</v>
-      </c>
-      <c r="G78" t="n">
-        <v>2008</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2012</v>
       </c>
     </row>
     <row r="79">
@@ -2195,22 +2468,25 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1996</v>
+        <v>1988</v>
       </c>
       <c r="D79" t="n">
-        <v>1997</v>
+        <v>1989</v>
       </c>
       <c r="E79" t="n">
+        <v>1992</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1994</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2005</v>
+      </c>
+      <c r="H79" t="n">
         <v>2007</v>
       </c>
-      <c r="F79" t="n">
-        <v>2008</v>
-      </c>
-      <c r="G79" t="n">
-        <v>2012</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2017</v>
+      <c r="I79" t="n">
+        <v>2010</v>
       </c>
     </row>
     <row r="80">
@@ -2220,22 +2496,25 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>-815.4676794871777</v>
+        <v>0.2934508574087361</v>
       </c>
       <c r="D80" t="n">
-        <v>-794.8946221794868</v>
+        <v>0.1293180763935646</v>
       </c>
       <c r="E80" t="n">
-        <v>-691.2470695454546</v>
+        <v>0.3148821110483577</v>
       </c>
       <c r="F80" t="n">
-        <v>-703.3522195454531</v>
+        <v>0.3452676399151646</v>
       </c>
       <c r="G80" t="n">
-        <v>-174.8700310588223</v>
+        <v>0.2199037599004674</v>
       </c>
       <c r="H80" t="n">
-        <v>-539.5353068235281</v>
+        <v>0.2334444827825193</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.1037925694170214</v>
       </c>
     </row>
     <row r="81">
@@ -2245,22 +2524,25 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>-794.8946221794868</v>
+        <v>0.1293180763935646</v>
       </c>
       <c r="D81" t="n">
-        <v>-691.2470695454546</v>
+        <v>0.3148821110483577</v>
       </c>
       <c r="E81" t="n">
-        <v>-703.3522195454531</v>
+        <v>0.3452676399151646</v>
       </c>
       <c r="F81" t="n">
-        <v>-174.8700310588223</v>
+        <v>0.2199037599004674</v>
       </c>
       <c r="G81" t="n">
-        <v>-539.5353068235281</v>
+        <v>0.2334444827825193</v>
       </c>
       <c r="H81" t="n">
-        <v>-681.7053938823519</v>
+        <v>0.1037925694170214</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.1627337436392038</v>
       </c>
     </row>
     <row r="82">
@@ -2270,22 +2552,25 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>20.57305730769099</v>
+        <v>-0.1641327810151714</v>
       </c>
       <c r="D82" t="n">
-        <v>103.6475526340322</v>
+        <v>0.1855640346547931</v>
       </c>
       <c r="E82" t="n">
-        <v>-12.1051499999985</v>
+        <v>0.0303855288668069</v>
       </c>
       <c r="F82" t="n">
-        <v>528.4821884866308</v>
+        <v>-0.1253638800146972</v>
       </c>
       <c r="G82" t="n">
-        <v>-364.6652757647058</v>
+        <v>0.01354072288205188</v>
       </c>
       <c r="H82" t="n">
-        <v>-142.1700870588238</v>
+        <v>-0.1296519133654979</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.05894117422218237</v>
       </c>
     </row>
     <row r="83">
@@ -2295,22 +2580,25 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>-784.6975</v>
+        <v>0.2932212860703493</v>
       </c>
       <c r="D83" t="n">
-        <v>-789.0934999999999</v>
+        <v>0.1290885050551785</v>
       </c>
       <c r="E83" t="n">
-        <v>-666.8848</v>
+        <v>0.2921674115930734</v>
       </c>
       <c r="F83" t="n">
-        <v>-732.6823000000001</v>
+        <v>0.3396471905194803</v>
       </c>
       <c r="G83" t="n">
-        <v>-250.12582</v>
+        <v>0.1944301562077922</v>
       </c>
       <c r="H83" t="n">
-        <v>-593.4248700000001</v>
+        <v>0.2164647831731601</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.1068580758701299</v>
       </c>
     </row>
     <row r="84">
@@ -2320,22 +2608,25 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>-789.0934999999999</v>
+        <v>0.1290885050551785</v>
       </c>
       <c r="D84" t="n">
-        <v>-666.8848</v>
+        <v>0.2921674115930734</v>
       </c>
       <c r="E84" t="n">
-        <v>-732.6823000000001</v>
+        <v>0.3396471905194803</v>
       </c>
       <c r="F84" t="n">
-        <v>-250.12582</v>
+        <v>0.1944301562077922</v>
       </c>
       <c r="G84" t="n">
-        <v>-593.4248700000001</v>
+        <v>0.2164647831731601</v>
       </c>
       <c r="H84" t="n">
-        <v>-712.9526</v>
+        <v>0.1068580758701299</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.1575151377565053</v>
       </c>
     </row>
     <row r="85">
@@ -2345,22 +2636,25 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H85" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -2370,22 +2664,25 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1.870277937062817</v>
+        <v>-0.08206639050758571</v>
       </c>
       <c r="D86" t="n">
-        <v>103.6475526340322</v>
+        <v>0.1855640346547931</v>
       </c>
       <c r="E86" t="n">
-        <v>-1.21051499999985</v>
+        <v>0.01012850962226897</v>
       </c>
       <c r="F86" t="n">
-        <v>528.4821884866308</v>
+        <v>-0.06268194000734861</v>
       </c>
       <c r="G86" t="n">
-        <v>-91.16631894117646</v>
+        <v>0.001230974807459262</v>
       </c>
       <c r="H86" t="n">
-        <v>-28.43401741176476</v>
+        <v>-0.06482595668274893</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.01964705807406079</v>
       </c>
     </row>
     <row r="87">
@@ -2395,22 +2692,25 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.5529202892839786</v>
+        <v>-9.272686312888771</v>
       </c>
       <c r="D87" t="n">
-        <v>2.785625584417211</v>
+        <v>10.48344562046304</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.32533730595904</v>
+        <v>1.716631351095448</v>
       </c>
       <c r="F87" t="n">
-        <v>14.20345649988635</v>
+        <v>-7.082436105408234</v>
       </c>
       <c r="G87" t="n">
-        <v>-9.800722700182522</v>
+        <v>0.7649835392932042</v>
       </c>
       <c r="H87" t="n">
-        <v>-3.820954974674881</v>
+        <v>-7.324688676255152</v>
+      </c>
+      <c r="I87" t="n">
+        <v>3.329883379147179</v>
       </c>
     </row>
     <row r="89">
@@ -2425,22 +2725,25 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="D89" t="n">
-        <v>1996</v>
+        <v>1988</v>
       </c>
       <c r="E89" t="n">
-        <v>1997</v>
+        <v>1989</v>
       </c>
       <c r="F89" t="n">
+        <v>1993</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1994</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2005</v>
+      </c>
+      <c r="I89" t="n">
         <v>2007</v>
-      </c>
-      <c r="G89" t="n">
-        <v>2008</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2012</v>
       </c>
     </row>
     <row r="90">
@@ -2450,22 +2753,25 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1996</v>
+        <v>1988</v>
       </c>
       <c r="D90" t="n">
-        <v>1997</v>
+        <v>1989</v>
       </c>
       <c r="E90" t="n">
+        <v>1993</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1994</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2005</v>
+      </c>
+      <c r="H90" t="n">
         <v>2007</v>
       </c>
-      <c r="F90" t="n">
-        <v>2008</v>
-      </c>
-      <c r="G90" t="n">
-        <v>2012</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2017</v>
+      <c r="I90" t="n">
+        <v>2010</v>
       </c>
     </row>
     <row r="91">
@@ -2475,22 +2781,25 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>-812.4017656410228</v>
+        <v>0.3233041808452431</v>
       </c>
       <c r="D91" t="n">
-        <v>-797.4019760256399</v>
+        <v>0.136231322708859</v>
       </c>
       <c r="E91" t="n">
-        <v>-335.5358854545444</v>
+        <v>0.344633477825109</v>
       </c>
       <c r="F91" t="n">
-        <v>-743.0268381818178</v>
+        <v>0.3421216985541125</v>
       </c>
       <c r="G91" t="n">
-        <v>-520.0519963529405</v>
+        <v>0.2042544824738679</v>
       </c>
       <c r="H91" t="n">
-        <v>-684.3369069411765</v>
+        <v>0.1891570347055542</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.08607224313540174</v>
       </c>
     </row>
     <row r="92">
@@ -2500,22 +2809,25 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>-797.4019760256399</v>
+        <v>0.136231322708859</v>
       </c>
       <c r="D92" t="n">
-        <v>-335.5358854545444</v>
+        <v>0.344633477825109</v>
       </c>
       <c r="E92" t="n">
-        <v>-743.0268381818178</v>
+        <v>0.3421216985541125</v>
       </c>
       <c r="F92" t="n">
-        <v>-520.0519963529405</v>
+        <v>0.2042544824738679</v>
       </c>
       <c r="G92" t="n">
-        <v>-684.3369069411765</v>
+        <v>0.1891570347055542</v>
       </c>
       <c r="H92" t="n">
-        <v>-711.4727792941194</v>
+        <v>0.08607224313540174</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.1454160571203991</v>
       </c>
     </row>
     <row r="93">
@@ -2525,22 +2837,25 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>14.99978961538295</v>
+        <v>-0.1870728581363841</v>
       </c>
       <c r="D93" t="n">
-        <v>461.8660905710955</v>
+        <v>0.20840215511625</v>
       </c>
       <c r="E93" t="n">
-        <v>-407.4909527272734</v>
+        <v>-0.00251177927099655</v>
       </c>
       <c r="F93" t="n">
-        <v>222.9748418288773</v>
+        <v>-0.1378672160802445</v>
       </c>
       <c r="G93" t="n">
-        <v>-164.284910588236</v>
+        <v>-0.01509744776831368</v>
       </c>
       <c r="H93" t="n">
-        <v>-27.1358723529429</v>
+        <v>-0.1030847915701525</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.05934381398499733</v>
       </c>
     </row>
     <row r="94">
@@ -2550,22 +2865,25 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>-799.1427</v>
+        <v>0.3226743996331177</v>
       </c>
       <c r="D94" t="n">
-        <v>-773.55566</v>
+        <v>0.1356015414967351</v>
       </c>
       <c r="E94" t="n">
-        <v>-315.57504</v>
+        <v>0.3055088003376621</v>
       </c>
       <c r="F94" t="n">
-        <v>-731.3499</v>
+        <v>0.3089266996709956</v>
       </c>
       <c r="G94" t="n">
-        <v>-547.8475</v>
+        <v>0.2018716437056277</v>
       </c>
       <c r="H94" t="n">
-        <v>-713.65247</v>
+        <v>0.1952029636753246</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.09000262796969699</v>
       </c>
     </row>
     <row r="95">
@@ -2575,22 +2893,25 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>-773.55566</v>
+        <v>0.1356015414967351</v>
       </c>
       <c r="D95" t="n">
-        <v>-315.57504</v>
+        <v>0.3055088003376621</v>
       </c>
       <c r="E95" t="n">
-        <v>-731.3499</v>
+        <v>0.3089266996709956</v>
       </c>
       <c r="F95" t="n">
-        <v>-547.8475</v>
+        <v>0.2018716437056277</v>
       </c>
       <c r="G95" t="n">
-        <v>-713.65247</v>
+        <v>0.1952029636753246</v>
       </c>
       <c r="H95" t="n">
-        <v>-732.8913</v>
+        <v>0.09000262796969699</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.1451893579015177</v>
       </c>
     </row>
     <row r="96">
@@ -2600,22 +2921,25 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F96" t="n">
         <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H96" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I96" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="97">
@@ -2625,22 +2949,25 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1.363617237762087</v>
+        <v>-0.09353642906819207</v>
       </c>
       <c r="D97" t="n">
-        <v>461.8660905710955</v>
+        <v>0.20840215511625</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.74909527272734</v>
+        <v>-0.0006279448177491376</v>
       </c>
       <c r="F97" t="n">
-        <v>222.9748418288773</v>
+        <v>-0.1378672160802445</v>
       </c>
       <c r="G97" t="n">
-        <v>-41.071227647059</v>
+        <v>-0.00137249525166488</v>
       </c>
       <c r="H97" t="n">
-        <v>-5.42717447058858</v>
+        <v>-0.05154239578507624</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.01978127132833244</v>
       </c>
     </row>
     <row r="98">
@@ -2650,22 +2977,25 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.6059377449190767</v>
+        <v>-10.58340090640963</v>
       </c>
       <c r="D98" t="n">
-        <v>18.65773484504267</v>
+        <v>11.79007783024868</v>
       </c>
       <c r="E98" t="n">
-        <v>-16.46117414322056</v>
+        <v>-0.142100608705008</v>
       </c>
       <c r="F98" t="n">
-        <v>9.007384523108081</v>
+        <v>-7.799656423510045</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.636521631208653</v>
+        <v>-0.8541182509712595</v>
       </c>
       <c r="H98" t="n">
-        <v>-1.096191994792478</v>
+        <v>-5.831886503520583</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3.357298225810731</v>
       </c>
     </row>
     <row r="100">
@@ -2680,22 +3010,25 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="D100" t="n">
-        <v>1996</v>
+        <v>1988</v>
       </c>
       <c r="E100" t="n">
-        <v>1997</v>
+        <v>1990</v>
       </c>
       <c r="F100" t="n">
+        <v>1992</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1994</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2005</v>
+      </c>
+      <c r="I100" t="n">
         <v>2007</v>
-      </c>
-      <c r="G100" t="n">
-        <v>2008</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2012</v>
       </c>
     </row>
     <row r="101">
@@ -2705,22 +3038,25 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1996</v>
+        <v>1988</v>
       </c>
       <c r="D101" t="n">
-        <v>1997</v>
+        <v>1990</v>
       </c>
       <c r="E101" t="n">
+        <v>1992</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1994</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2005</v>
+      </c>
+      <c r="H101" t="n">
         <v>2007</v>
       </c>
-      <c r="F101" t="n">
-        <v>2008</v>
-      </c>
-      <c r="G101" t="n">
-        <v>2012</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2017</v>
+      <c r="I101" t="n">
+        <v>2010</v>
       </c>
     </row>
     <row r="102">
@@ -2730,22 +3066,25 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>-812.4017656410228</v>
+        <v>0.3169770192043768</v>
       </c>
       <c r="D102" t="n">
-        <v>-797.4019760256399</v>
+        <v>0.158557275752997</v>
       </c>
       <c r="E102" t="n">
-        <v>-335.5358854545444</v>
+        <v>0.3998631205026584</v>
       </c>
       <c r="F102" t="n">
-        <v>-743.0268381818178</v>
+        <v>0.3907730951184978</v>
       </c>
       <c r="G102" t="n">
-        <v>-520.0519963529405</v>
+        <v>0.1736982605006403</v>
       </c>
       <c r="H102" t="n">
-        <v>-684.3369069411765</v>
+        <v>0.1702151853717835</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.08248364986311341</v>
       </c>
     </row>
     <row r="103">
@@ -2755,22 +3094,25 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>-797.4019760256399</v>
+        <v>0.158557275752997</v>
       </c>
       <c r="D103" t="n">
-        <v>-335.5358854545444</v>
+        <v>0.3998631205026584</v>
       </c>
       <c r="E103" t="n">
-        <v>-743.0268381818178</v>
+        <v>0.3907730951184978</v>
       </c>
       <c r="F103" t="n">
-        <v>-520.0519963529405</v>
+        <v>0.1736982605006403</v>
       </c>
       <c r="G103" t="n">
-        <v>-684.3369069411765</v>
+        <v>0.1702151853717835</v>
       </c>
       <c r="H103" t="n">
-        <v>-711.4727792941194</v>
+        <v>0.08248364986311341</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.1292794502422625</v>
       </c>
     </row>
     <row r="104">
@@ -2780,22 +3122,25 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>14.99978961538295</v>
+        <v>-0.1584197434513799</v>
       </c>
       <c r="D104" t="n">
-        <v>461.8660905710955</v>
+        <v>0.2413058447496615</v>
       </c>
       <c r="E104" t="n">
-        <v>-407.4909527272734</v>
+        <v>-0.009090025384160649</v>
       </c>
       <c r="F104" t="n">
-        <v>222.9748418288773</v>
+        <v>-0.2170748346178575</v>
       </c>
       <c r="G104" t="n">
-        <v>-164.284910588236</v>
+        <v>-0.003483075128856816</v>
       </c>
       <c r="H104" t="n">
-        <v>-27.1358723529429</v>
+        <v>-0.08773153550867008</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.0467958003791491</v>
       </c>
     </row>
     <row r="105">
@@ -2805,22 +3150,25 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>-799.1427</v>
+        <v>0.3204707637781368</v>
       </c>
       <c r="D105" t="n">
-        <v>-773.55566</v>
+        <v>0.1437519076720578</v>
       </c>
       <c r="E105" t="n">
-        <v>-315.57504</v>
+        <v>0.3971296109696968</v>
       </c>
       <c r="F105" t="n">
-        <v>-731.3499</v>
+        <v>0.3862755926969695</v>
       </c>
       <c r="G105" t="n">
-        <v>-547.8475</v>
+        <v>0.1963942102380953</v>
       </c>
       <c r="H105" t="n">
-        <v>-713.65247</v>
+        <v>0.1825403228268397</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.08816504883982684</v>
       </c>
     </row>
     <row r="106">
@@ -2830,22 +3178,25 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>-773.55566</v>
+        <v>0.1437519076720578</v>
       </c>
       <c r="D106" t="n">
-        <v>-315.57504</v>
+        <v>0.3971296109696968</v>
       </c>
       <c r="E106" t="n">
-        <v>-731.3499</v>
+        <v>0.3862755926969695</v>
       </c>
       <c r="F106" t="n">
-        <v>-547.8475</v>
+        <v>0.1963942102380953</v>
       </c>
       <c r="G106" t="n">
-        <v>-713.65247</v>
+        <v>0.1825403228268397</v>
       </c>
       <c r="H106" t="n">
-        <v>-732.8913</v>
+        <v>0.08816504883982684</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.1308257996580069</v>
       </c>
     </row>
     <row r="107">
@@ -2855,22 +3206,25 @@
         </is>
       </c>
       <c r="C107" t="n">
+        <v>2</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2</v>
+      </c>
+      <c r="G107" t="n">
         <v>11</v>
       </c>
-      <c r="D107" t="n">
-        <v>1</v>
-      </c>
-      <c r="E107" t="n">
-        <v>10</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1</v>
-      </c>
-      <c r="G107" t="n">
-        <v>4</v>
-      </c>
       <c r="H107" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="108">
@@ -2880,22 +3234,25 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1.363617237762087</v>
+        <v>-0.07920987172568993</v>
       </c>
       <c r="D108" t="n">
-        <v>461.8660905710955</v>
+        <v>0.1206529223748307</v>
       </c>
       <c r="E108" t="n">
-        <v>-40.74909527272734</v>
+        <v>-0.004545012692080325</v>
       </c>
       <c r="F108" t="n">
-        <v>222.9748418288773</v>
+        <v>-0.1085374173089287</v>
       </c>
       <c r="G108" t="n">
-        <v>-41.071227647059</v>
+        <v>-0.0003166431935324378</v>
       </c>
       <c r="H108" t="n">
-        <v>-5.42717447058858</v>
+        <v>-0.04386576775433504</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.01559860012638303</v>
       </c>
     </row>
     <row r="109">
@@ -2905,22 +3262,25 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.6059377449190767</v>
+        <v>-9.425933011947951</v>
       </c>
       <c r="D109" t="n">
-        <v>18.65773484504267</v>
+        <v>14.35763420927324</v>
       </c>
       <c r="E109" t="n">
-        <v>-16.46117414322056</v>
+        <v>-0.5408541162945459</v>
       </c>
       <c r="F109" t="n">
-        <v>9.007384523108081</v>
+        <v>-12.91589548821342</v>
       </c>
       <c r="G109" t="n">
-        <v>-6.636521631208653</v>
+        <v>-0.2072420528206604</v>
       </c>
       <c r="H109" t="n">
-        <v>-1.096191994792478</v>
+        <v>-5.220003256689117</v>
+      </c>
+      <c r="I109" t="n">
+        <v>2.78433779783088</v>
       </c>
     </row>
     <row r="111">
@@ -2935,22 +3295,25 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="D111" t="n">
-        <v>1996</v>
+        <v>1988</v>
       </c>
       <c r="E111" t="n">
-        <v>1997</v>
+        <v>1990</v>
       </c>
       <c r="F111" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="G111" t="n">
-        <v>2003</v>
+        <v>1994</v>
       </c>
       <c r="H111" t="n">
-        <v>2005</v>
+        <v>2001</v>
+      </c>
+      <c r="I111" t="n">
+        <v>2008</v>
       </c>
     </row>
     <row r="112">
@@ -2960,22 +3323,25 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1996</v>
+        <v>1988</v>
       </c>
       <c r="D112" t="n">
-        <v>1997</v>
+        <v>1990</v>
       </c>
       <c r="E112" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="F112" t="n">
-        <v>2003</v>
+        <v>1994</v>
       </c>
       <c r="G112" t="n">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="H112" t="n">
-        <v>2017</v>
+        <v>2008</v>
+      </c>
+      <c r="I112" t="n">
+        <v>2010</v>
       </c>
     </row>
     <row r="113">
@@ -2985,22 +3351,25 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>-821.2796939743582</v>
+        <v>0.2906577520258682</v>
       </c>
       <c r="D113" t="n">
-        <v>-831.439919358977</v>
+        <v>0.146996549091442</v>
       </c>
       <c r="E113" t="n">
-        <v>-27.65977771588489</v>
+        <v>0.3706220222046426</v>
       </c>
       <c r="F113" t="n">
-        <v>-410.8154492443905</v>
+        <v>0.3573171397759314</v>
       </c>
       <c r="G113" t="n">
-        <v>-473.1324658732174</v>
+        <v>0.1560953541700603</v>
       </c>
       <c r="H113" t="n">
-        <v>-706.2429744811616</v>
+        <v>0.1543660336153319</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.1043391143501062</v>
       </c>
     </row>
     <row r="114">
@@ -3010,22 +3379,25 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>-831.439919358977</v>
+        <v>0.146996549091442</v>
       </c>
       <c r="D114" t="n">
-        <v>-27.65977771588489</v>
+        <v>0.3706220222046426</v>
       </c>
       <c r="E114" t="n">
-        <v>-410.8154492443905</v>
+        <v>0.3573171397759314</v>
       </c>
       <c r="F114" t="n">
-        <v>-473.1324658732174</v>
+        <v>0.1560953541700603</v>
       </c>
       <c r="G114" t="n">
-        <v>-706.2429744811616</v>
+        <v>0.1543660336153319</v>
       </c>
       <c r="H114" t="n">
-        <v>-851.5694624282951</v>
+        <v>0.1043391143501062</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.137391542636458</v>
       </c>
     </row>
     <row r="115">
@@ -3035,22 +3407,25 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>-10.1602253846188</v>
+        <v>-0.1436612029344262</v>
       </c>
       <c r="D115" t="n">
-        <v>803.7801416430922</v>
+        <v>0.2236254731132006</v>
       </c>
       <c r="E115" t="n">
-        <v>-383.1556715285056</v>
+        <v>-0.01330488242871125</v>
       </c>
       <c r="F115" t="n">
-        <v>-62.31701662882688</v>
+        <v>-0.2012217856058711</v>
       </c>
       <c r="G115" t="n">
-        <v>-233.1105086079442</v>
+        <v>-0.001729320554728409</v>
       </c>
       <c r="H115" t="n">
-        <v>-145.3264879471335</v>
+        <v>-0.05002691926522562</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.0330524282863518</v>
       </c>
     </row>
     <row r="116">
@@ -3060,22 +3435,25 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>-829.2187</v>
+        <v>0.2955541635974042</v>
       </c>
       <c r="D116" t="n">
-        <v>-817.2626</v>
+        <v>0.1347020829610266</v>
       </c>
       <c r="E116" t="n">
-        <v>-67.340065</v>
+        <v>0.3625332798095237</v>
       </c>
       <c r="F116" t="n">
-        <v>-406.38004</v>
+        <v>0.3542094163463202</v>
       </c>
       <c r="G116" t="n">
-        <v>-478.95154</v>
+        <v>0.1613211128225108</v>
       </c>
       <c r="H116" t="n">
-        <v>-663.82404</v>
+        <v>0.1237287733722943</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.08504814012662182</v>
       </c>
     </row>
     <row r="117">
@@ -3085,22 +3463,25 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>-817.2626</v>
+        <v>0.1347020829610266</v>
       </c>
       <c r="D117" t="n">
-        <v>-67.340065</v>
+        <v>0.3625332798095237</v>
       </c>
       <c r="E117" t="n">
-        <v>-406.38004</v>
+        <v>0.3542094163463202</v>
       </c>
       <c r="F117" t="n">
-        <v>-478.95154</v>
+        <v>0.1613211128225108</v>
       </c>
       <c r="G117" t="n">
-        <v>-663.82404</v>
+        <v>0.1237287733722943</v>
       </c>
       <c r="H117" t="n">
-        <v>-828.407</v>
+        <v>0.08504814012662182</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.1382411268084376</v>
       </c>
     </row>
     <row r="118">
@@ -3110,22 +3491,25 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G118" t="n">
+        <v>7</v>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+      <c r="I118" t="n">
         <v>2</v>
-      </c>
-      <c r="H118" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="119">
@@ -3135,22 +3519,25 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>-0.9236568531471634</v>
+        <v>-0.07183060146721308</v>
       </c>
       <c r="D119" t="n">
-        <v>803.7801416430922</v>
+        <v>0.1118127365566003</v>
       </c>
       <c r="E119" t="n">
-        <v>-127.7185571761685</v>
+        <v>-0.006652441214355626</v>
       </c>
       <c r="F119" t="n">
-        <v>-20.77233887627563</v>
+        <v>-0.1006108928029356</v>
       </c>
       <c r="G119" t="n">
-        <v>-116.5552543039721</v>
+        <v>-0.0002470457935326298</v>
       </c>
       <c r="H119" t="n">
-        <v>-12.11054066226112</v>
+        <v>-0.007146702752175089</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.0165262141431759</v>
       </c>
     </row>
     <row r="120">
@@ -3160,22 +3547,25 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>-0.4281075521933865</v>
+        <v>-8.132299019273999</v>
       </c>
       <c r="D120" t="n">
-        <v>33.86778697462804</v>
+        <v>12.65887503749538</v>
       </c>
       <c r="E120" t="n">
-        <v>-16.14450766962352</v>
+        <v>-0.7531558981581945</v>
       </c>
       <c r="F120" t="n">
-        <v>-2.625767090693587</v>
+        <v>-11.39065869082356</v>
       </c>
       <c r="G120" t="n">
-        <v>-9.822259394144988</v>
+        <v>-0.09789248289705184</v>
       </c>
       <c r="H120" t="n">
-        <v>-6.123423907317512</v>
+        <v>-2.831897952738098</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1.871014753095257</v>
       </c>
     </row>
     <row r="122">
@@ -3190,22 +3580,25 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="D122" t="n">
-        <v>1996</v>
+        <v>1989</v>
       </c>
       <c r="E122" t="n">
-        <v>1997</v>
+        <v>1990</v>
       </c>
       <c r="F122" t="n">
-        <v>2002</v>
+        <v>1994</v>
       </c>
       <c r="G122" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="H122" t="n">
-        <v>2006</v>
+        <v>2004</v>
+      </c>
+      <c r="I122" t="n">
+        <v>2007</v>
       </c>
     </row>
     <row r="123">
@@ -3215,22 +3608,25 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1996</v>
+        <v>1989</v>
       </c>
       <c r="D123" t="n">
-        <v>1997</v>
+        <v>1990</v>
       </c>
       <c r="E123" t="n">
-        <v>2002</v>
+        <v>1994</v>
       </c>
       <c r="F123" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="G123" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="H123" t="n">
-        <v>2017</v>
+        <v>2007</v>
+      </c>
+      <c r="I123" t="n">
+        <v>2010</v>
       </c>
     </row>
     <row r="124">
@@ -3240,22 +3636,25 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>-826.6649879487151</v>
+        <v>0.2213521147644982</v>
       </c>
       <c r="D124" t="n">
-        <v>-847.6425787179487</v>
+        <v>0.1409700215190389</v>
       </c>
       <c r="E124" t="n">
-        <v>-42.39831414285504</v>
+        <v>0.3149357055142822</v>
       </c>
       <c r="F124" t="n">
-        <v>-427.7944348571364</v>
+        <v>0.1617036198467612</v>
       </c>
       <c r="G124" t="n">
-        <v>-398.5112172032486</v>
+        <v>0.1463929243270652</v>
       </c>
       <c r="H124" t="n">
-        <v>-737.2567397886223</v>
+        <v>0.1447181279107372</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.0773284238762022</v>
       </c>
     </row>
     <row r="125">
@@ -3265,22 +3664,25 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>-847.6425787179487</v>
+        <v>0.1409700215190389</v>
       </c>
       <c r="D125" t="n">
-        <v>-42.39831414285504</v>
+        <v>0.3149357055142822</v>
       </c>
       <c r="E125" t="n">
-        <v>-427.7944348571364</v>
+        <v>0.1617036198467612</v>
       </c>
       <c r="F125" t="n">
-        <v>-398.5112172032486</v>
+        <v>0.1463929243270652</v>
       </c>
       <c r="G125" t="n">
-        <v>-737.2567397886223</v>
+        <v>0.1447181279107372</v>
       </c>
       <c r="H125" t="n">
-        <v>-861.6624261788602</v>
+        <v>0.0773284238762022</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.1251824940669071</v>
       </c>
     </row>
     <row r="126">
@@ -3290,22 +3692,25 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>-20.97759076923364</v>
+        <v>-0.08038209324545931</v>
       </c>
       <c r="D126" t="n">
-        <v>805.2442645750937</v>
+        <v>0.1739656839952433</v>
       </c>
       <c r="E126" t="n">
-        <v>-385.3961207142813</v>
+        <v>-0.1532320856675211</v>
       </c>
       <c r="F126" t="n">
-        <v>29.28321765388773</v>
+        <v>-0.01531069551969599</v>
       </c>
       <c r="G126" t="n">
-        <v>-338.7455225853737</v>
+        <v>-0.001674796416327951</v>
       </c>
       <c r="H126" t="n">
-        <v>-124.4056863902379</v>
+        <v>-0.06738970403453504</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.04785407019070487</v>
       </c>
     </row>
     <row r="127">
@@ -3315,22 +3720,25 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>-832.6693</v>
+        <v>0.2748777305432902</v>
       </c>
       <c r="D127" t="n">
-        <v>-871.8418</v>
+        <v>0.223162861134199</v>
       </c>
       <c r="E127" t="n">
-        <v>-27.027027</v>
+        <v>0.3020972715497834</v>
       </c>
       <c r="F127" t="n">
-        <v>-363.89536</v>
+        <v>0.1386556995757576</v>
       </c>
       <c r="G127" t="n">
-        <v>-379.3279</v>
+        <v>0.168277358095238</v>
       </c>
       <c r="H127" t="n">
-        <v>-703.3972</v>
+        <v>0.1506414141645021</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.07872412406493506</v>
       </c>
     </row>
     <row r="128">
@@ -3340,22 +3748,25 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>-871.8418</v>
+        <v>0.223162861134199</v>
       </c>
       <c r="D128" t="n">
-        <v>-27.027027</v>
+        <v>0.3020972715497834</v>
       </c>
       <c r="E128" t="n">
-        <v>-363.89536</v>
+        <v>0.1386556995757576</v>
       </c>
       <c r="F128" t="n">
-        <v>-379.3279</v>
+        <v>0.168277358095238</v>
       </c>
       <c r="G128" t="n">
-        <v>-703.3972</v>
+        <v>0.1506414141645021</v>
       </c>
       <c r="H128" t="n">
-        <v>-845.4545000000001</v>
+        <v>0.07872412406493506</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.1318107227467514</v>
       </c>
     </row>
     <row r="129">
@@ -3365,22 +3776,25 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D129" t="n">
         <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G129" t="n">
+        <v>6</v>
+      </c>
+      <c r="H129" t="n">
         <v>3</v>
       </c>
-      <c r="H129" t="n">
-        <v>11</v>
+      <c r="I129" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="130">
@@ -3390,22 +3804,25 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>-1.907053706293968</v>
+        <v>-0.02679403108181977</v>
       </c>
       <c r="D130" t="n">
-        <v>805.2442645750937</v>
+        <v>0.1739656839952433</v>
       </c>
       <c r="E130" t="n">
-        <v>-77.07922414285626</v>
+        <v>-0.03830802141688026</v>
       </c>
       <c r="F130" t="n">
-        <v>29.28321765388773</v>
+        <v>-0.003827673879923998</v>
       </c>
       <c r="G130" t="n">
-        <v>-112.9151741951246</v>
+        <v>-0.0002791327360546584</v>
       </c>
       <c r="H130" t="n">
-        <v>-11.30960785365799</v>
+        <v>-0.02246323467817835</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.01595135673023496</v>
       </c>
     </row>
     <row r="131">
@@ -3415,22 +3832,595 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>-0.6690654607185467</v>
+        <v>-2.455539010739465</v>
       </c>
       <c r="D131" t="n">
-        <v>25.6826978272007</v>
+        <v>5.314361773036123</v>
       </c>
       <c r="E131" t="n">
-        <v>-12.29193742510314</v>
+        <v>-4.680984891803927</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9339675717029744</v>
+        <v>-0.4677162364428872</v>
       </c>
       <c r="G131" t="n">
-        <v>-10.80404950349824</v>
+        <v>-0.05116223986331991</v>
       </c>
       <c r="H131" t="n">
-        <v>-3.967831615953118</v>
+        <v>-2.058643169115717</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1.461862106739528</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Pixel ID: 12</t>
+        </is>
+      </c>
+      <c r="B133" s="1" t="inlineStr">
+        <is>
+          <t>Năm Bắt Đầu</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1988</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1989</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1992</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1994</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1997</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" s="1" t="inlineStr">
+        <is>
+          <t>Năm Kết Thúc</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1989</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1992</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1994</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1997</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1998</v>
+      </c>
+      <c r="I134" t="n">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" s="1" t="inlineStr">
+        <is>
+          <t>Giá Trị Dự Đoán Bắt Đầu</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0.2492943635476217</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.1423988376385106</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.3467178783700975</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.3538261719092031</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.2104795491550908</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.2368432830484526</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.3048538232029139</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" s="1" t="inlineStr">
+        <is>
+          <t>Giá Trị Dự Đoán Kết Thúc</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>0.1423988376385106</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.3467178783700975</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.3538261719092031</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.2104795491550908</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.2368432830484526</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.3048538232029139</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.2010442709805673</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" s="1" t="inlineStr">
+        <is>
+          <t>Sự Thay Đổi Quang Phổ Dự Đoán</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>-0.1068955259091111</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.2043190407315869</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.007108293539105581</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-0.1433466227541123</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.02636373389336177</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.06801054015446129</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-0.1038095522223466</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" s="1" t="inlineStr">
+        <is>
+          <t>Giá Trị Thực Bắt Đầu</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0.247866979577922</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.1409714536688118</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.3166608794415582</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.3480386068051946</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.1999652239610389</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.2160406818874458</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.2882122484632033</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" s="1" t="inlineStr">
+        <is>
+          <t>Giá Trị Thực Kết Thúc</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0.1409714536688118</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.3166608794415582</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.3480386068051946</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.1999652239610389</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.2160406818874458</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.2882122484632033</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.2515997707218749</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" s="1" t="inlineStr">
+        <is>
+          <t>Thời Lượng</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>2</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2</v>
+      </c>
+      <c r="G140" t="n">
+        <v>3</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" s="1" t="inlineStr">
+        <is>
+          <t>Tốc Độ Thay Đổi Dự Đoán</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>-0.05344776295455556</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.2043190407315869</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.002369431179701861</v>
+      </c>
+      <c r="F141" t="n">
+        <v>-0.07167331137705613</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.008787911297787257</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.06801054015446129</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-0.00865079601852888</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" s="1" t="inlineStr">
+        <is>
+          <t>DSNR</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>-4.454012725687338</v>
+      </c>
+      <c r="D142" t="n">
+        <v>8.513355444759089</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.2961810572691032</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-5.972819502978834</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1.098496922663621</v>
+      </c>
+      <c r="H142" t="n">
+        <v>2.833793170973316</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-4.325429551086819</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Pixel ID: 13</t>
+        </is>
+      </c>
+      <c r="B144" s="1" t="inlineStr">
+        <is>
+          <t>Năm Bắt Đầu</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1988</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1990</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1991</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1992</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1994</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" s="1" t="inlineStr">
+        <is>
+          <t>Năm Kết Thúc</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1991</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1992</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1994</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1997</v>
+      </c>
+      <c r="I145" t="n">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" s="1" t="inlineStr">
+        <is>
+          <t>Giá Trị Dự Đoán Bắt Đầu</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>0.2745674691782433</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.09393018683610665</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.3841060050777999</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.3332770049740253</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.3332159434299475</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.2057066197073969</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.2641025768291474</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" s="1" t="inlineStr">
+        <is>
+          <t>Giá Trị Dự Đoán Kết Thúc</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>0.09393018683610665</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.3841060050777999</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.3332770049740253</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.3332159434299475</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.2057066197073969</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.2641025768291474</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.1436938172722417</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" s="1" t="inlineStr">
+        <is>
+          <t>Sự Thay Đổi Quang Phổ Dự Đoán</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>-0.1806372823421366</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.2901758182416933</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-0.05082900010377456</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-6.106154407781172e-05</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-0.1275093237225506</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.0583959571217505</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-0.1204087595569057</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" s="1" t="inlineStr">
+        <is>
+          <t>Giá Trị Thực Bắt Đầu</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>0.2749909769090995</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.0776121086363506</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.367364419147186</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.3332770049740258</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.3405546088051946</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.1999271297099567</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.1990194911038961</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" s="1" t="inlineStr">
+        <is>
+          <t>Giá Trị Thực Kết Thúc</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>0.0776121086363506</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.367364419147186</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.3332770049740258</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.3405546088051946</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.1999271297099567</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.1990194911038961</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.1783105078181922</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" s="1" t="inlineStr">
+        <is>
+          <t>Thời Lượng</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>2</v>
+      </c>
+      <c r="D151" t="n">
+        <v>2</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>2</v>
+      </c>
+      <c r="H151" t="n">
+        <v>3</v>
+      </c>
+      <c r="I151" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" s="1" t="inlineStr">
+        <is>
+          <t>Tốc Độ Thay Đổi Dự Đoán</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>-0.0903186411710683</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.1450879091208466</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-0.05082900010377456</v>
+      </c>
+      <c r="F152" t="n">
+        <v>-6.106154407781172e-05</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-0.06375466186127532</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.0194653190405835</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-0.009262212273608128</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" s="1" t="inlineStr">
+        <is>
+          <t>DSNR</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>-6.645883231226751</v>
+      </c>
+      <c r="D153" t="n">
+        <v>10.67595005613148</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-1.870065775291505</v>
+      </c>
+      <c r="F153" t="n">
+        <v>-0.002246534528187378</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-4.691235748042971</v>
+      </c>
+      <c r="H153" t="n">
+        <v>2.148464077707999</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-4.42999665216613</v>
       </c>
     </row>
   </sheetData>
